--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_43.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_30_43.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>89357.33961992087</v>
+        <v>16113551.621344</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89357.33961992087</v>
+        <v>16113551.621344</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4773.186515523413</v>
+        <v>474962.0355038186</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4773.186515523413</v>
+        <v>474962.0355038186</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1036265762.142097</v>
+        <v>42918654.17095952</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8655.178078835626</v>
+        <v>1035354.20058938</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>16126.04893195532</v>
+        <v>1882194.471082794</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>23535.21816448064</v>
+        <v>2729034.741576243</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>31248.46080658325</v>
+        <v>3578211.342662643</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38915.08263504994</v>
+        <v>4426859.864046065</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>46529.29327572599</v>
+        <v>5275508.385429409</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>54257.88038659703</v>
+        <v>6124156.906812797</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>61894.4432032278</v>
+        <v>6972805.42819614</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>69479.74294550519</v>
+        <v>7816131.121699237</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>76996.98583446804</v>
+        <v>8664049.540767035</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>84503.86412699422</v>
+        <v>9511323.951172451</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>91834.38879098775</v>
+        <v>10356946.13262554</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>99137.06504759079</v>
+        <v>11202966.54434174</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>106788.9549406242</v>
+        <v>11999813.35272467</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>114446.602453365</v>
+        <v>12801540.81477785</v>
       </c>
     </row>
   </sheetData>
@@ -27040,7 +27040,7 @@
         <v>49</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27055,10 +27055,10 @@
         <v>49</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>385</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>255</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
         <v>91</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
